--- a/sem1/Успеваемость_С-ИП-21-1.xlsx
+++ b/sem1/Успеваемость_С-ИП-21-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/AI/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D319ED4-5A76-6249-87B6-2B042241F474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47FA1F5-1AD1-6B49-B98A-BCEC8B36859C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="25">
   <si>
     <t>№</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Экспертная система</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -282,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -379,6 +385,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1595,14 +1619,16 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="185" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection pane="topRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
-    <col min="3" max="18" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="7" width="6.33203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="9.1640625" style="1" customWidth="1"/>
     <col min="19" max="21" width="8.83203125" style="1" customWidth="1"/>
     <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -1614,19 +1640,27 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="44">
         <v>45175</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="44">
         <v>45181</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="44">
         <v>45182</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="F1" s="44">
+        <v>45189</v>
+      </c>
+      <c r="G1" s="44">
+        <v>45195</v>
+      </c>
+      <c r="H1" s="44">
+        <v>45196</v>
+      </c>
+      <c r="I1" s="3">
+        <v>45203</v>
+      </c>
       <c r="J1" s="3"/>
       <c r="K1" s="4"/>
       <c r="L1" s="3"/>
@@ -1653,19 +1687,27 @@
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="C2" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>21</v>
+      </c>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -1692,19 +1734,27 @@
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="C3" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>22</v>
+      </c>
       <c r="J3" s="8"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -1731,19 +1781,27 @@
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="C4" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>22</v>
+      </c>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -1770,19 +1828,27 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="C5" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>21</v>
+      </c>
       <c r="J5" s="8"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -1809,19 +1875,27 @@
       <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="C6" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>22</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -1848,19 +1922,27 @@
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="C7" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>22</v>
+      </c>
       <c r="J7" s="8"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -1887,19 +1969,27 @@
       <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="C8" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>22</v>
+      </c>
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -1926,19 +2016,27 @@
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="C9" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>21</v>
+      </c>
       <c r="J9" s="8"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1965,19 +2063,27 @@
       <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="C10" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>22</v>
+      </c>
       <c r="J10" s="8"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -2004,19 +2110,27 @@
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="C11" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>21</v>
+      </c>
       <c r="J11" s="8"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -2043,19 +2157,27 @@
       <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="C12" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>22</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -2082,19 +2204,27 @@
       <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="C13" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>22</v>
+      </c>
       <c r="J13" s="8"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -2121,19 +2251,27 @@
       <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="C14" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>22</v>
+      </c>
       <c r="J14" s="8"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -2160,19 +2298,27 @@
       <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="C15" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>21</v>
+      </c>
       <c r="J15" s="8"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -2199,19 +2345,27 @@
       <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="C16" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>21</v>
+      </c>
       <c r="J16" s="8"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -2238,19 +2392,27 @@
       <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="C17" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>21</v>
+      </c>
       <c r="J17" s="8"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -2277,19 +2439,27 @@
       <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="C18" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>22</v>
+      </c>
       <c r="J18" s="8"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -2310,11 +2480,11 @@
       <c r="AA18" s="32"/>
     </row>
     <row r="19" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -2372,14 +2542,14 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="159" workbookViewId="0">
-      <selection activeCell="N23" sqref="C1:N23"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -2401,7 +2571,9 @@
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="45" t="s">
+        <v>23</v>
+      </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -2419,7 +2591,9 @@
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="47" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="16"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -2509,7 +2683,9 @@
       <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="47" t="s">
+        <v>21</v>
+      </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="15"/>
@@ -2527,7 +2703,9 @@
       <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="47" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="15"/>
@@ -2671,7 +2849,9 @@
       <c r="B16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="47" t="s">
+        <v>21</v>
+      </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -2689,7 +2869,9 @@
       <c r="B17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -2707,7 +2889,9 @@
       <c r="B18" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="48" t="s">
+        <v>21</v>
+      </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>

--- a/sem1/Успеваемость_С-ИП-21-1.xlsx
+++ b/sem1/Успеваемость_С-ИП-21-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/AI/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47FA1F5-1AD1-6B49-B98A-BCEC8B36859C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DD4C4D-58B1-6046-A6ED-4B5DFE2DF049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,52 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Arkadiy Schneider</author>
+  </authors>
+  <commentList>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{EDC313A6-2AA8-E040-9740-354D7909B4A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Arkadiy Schneider:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Некоторые странности в работе
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="26">
   <si>
     <t>№</t>
   </si>
@@ -108,6 +152,9 @@
   <si>
     <t>=</t>
   </si>
+  <si>
+    <t>Машинное обучение</t>
+  </si>
 </sst>
 </file>
 
@@ -116,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -145,6 +192,19 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -405,7 +465,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1619,7 +1681,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="185" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G14" sqref="G14"/>
+      <selection pane="topRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1628,7 +1690,9 @@
     <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
     <col min="3" max="7" width="6.33203125" style="46" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="9.1640625" style="1" customWidth="1"/>
+    <col min="9" max="12" width="6.33203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1640625" style="46" customWidth="1"/>
+    <col min="15" max="18" width="9.1640625" style="1" customWidth="1"/>
     <col min="19" max="21" width="8.83203125" style="1" customWidth="1"/>
     <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -1658,14 +1722,22 @@
       <c r="H1" s="44">
         <v>45196</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="44">
         <v>45203</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="J1" s="44">
+        <v>45209</v>
+      </c>
+      <c r="K1" s="4">
+        <v>45210</v>
+      </c>
+      <c r="L1" s="44">
+        <v>45217</v>
+      </c>
+      <c r="M1" s="44">
+        <v>45223</v>
+      </c>
+      <c r="N1" s="44"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -1705,14 +1777,22 @@
       <c r="H2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="I2" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="16"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -1752,14 +1832,22 @@
       <c r="H3" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="I3" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="16"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
@@ -1799,14 +1887,22 @@
       <c r="H4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="I4" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="16"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
@@ -1846,14 +1942,22 @@
       <c r="H5" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="I5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="16"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
@@ -1893,14 +1997,22 @@
       <c r="H6" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="I6" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="16"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
@@ -1940,14 +2052,22 @@
       <c r="H7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="I7" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="16"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
@@ -1987,14 +2107,22 @@
       <c r="H8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+      <c r="I8" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="16"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
@@ -2034,14 +2162,22 @@
       <c r="H9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="I9" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="16"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -2081,14 +2217,22 @@
       <c r="H10" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+      <c r="I10" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="16"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -2128,14 +2272,22 @@
       <c r="H11" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+      <c r="I11" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="16"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -2175,14 +2327,22 @@
       <c r="H12" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="I12" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="16"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -2222,14 +2382,22 @@
       <c r="H13" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="I13" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="16"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
@@ -2269,14 +2437,22 @@
       <c r="H14" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="I14" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="16"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
@@ -2316,14 +2492,22 @@
       <c r="H15" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="I15" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="16"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
@@ -2363,14 +2547,22 @@
       <c r="H16" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="I16" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="16"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -2410,14 +2602,22 @@
       <c r="H17" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="I17" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="16"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
@@ -2457,14 +2657,22 @@
       <c r="H18" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="I18" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="16"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
@@ -2486,12 +2694,12 @@
       <c r="F19" s="14"/>
       <c r="G19" s="45"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -2538,11 +2746,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="159" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" zoomScale="186" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2550,7 +2758,7 @@
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -2574,7 +2782,9 @@
       <c r="C1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="14"/>
+      <c r="D1" s="45" t="s">
+        <v>25</v>
+      </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -2612,7 +2822,9 @@
         <v>3</v>
       </c>
       <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="D3" s="47" t="s">
+        <v>21</v>
+      </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -2648,7 +2860,9 @@
         <v>5</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="D5" s="47" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
@@ -2723,7 +2937,9 @@
       <c r="B9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="47" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="15"/>
@@ -2759,7 +2975,9 @@
       <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="47" t="s">
+        <v>21</v>
+      </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -2778,7 +2996,9 @@
         <v>12</v>
       </c>
       <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="47" t="s">
+        <v>21</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -2795,7 +3015,9 @@
       <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="47" t="s">
+        <v>21</v>
+      </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -2852,7 +3074,9 @@
       <c r="C16" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="47" t="s">
+        <v>21</v>
+      </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="15"/>
@@ -2872,7 +3096,9 @@
       <c r="C17" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
@@ -3042,5 +3268,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>